--- a/ExcelHomework.xlsx
+++ b/ExcelHomework.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jamal\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jamal\Code\SavvyCoders\Homework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36E08F49-CB1D-4A48-A21A-BEFCC5379668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC2906A-8A39-47FB-9F2B-A50C03A4BB84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{C2B65D00-DB2D-4418-BAF6-942663C1A449}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C2B65D00-DB2D-4418-BAF6-942663C1A449}"/>
   </bookViews>
   <sheets>
     <sheet name="Roster" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="30" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -714,111 +714,12 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="30">
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
+  <dxfs count="15">
     <dxf>
       <alignment wrapText="1"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -997,16 +898,70 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <top style="thin">
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
           <color indexed="64"/>
-        </top>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -6443,7 +6398,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F952793B-9F69-42E2-AE14-CEE6E1123168}" name="PivotTable10" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F952793B-9F69-42E2-AE14-CEE6E1123168}" name="PivotTable10" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField numFmtId="14" showAll="0"/>
@@ -6555,10 +6510,10 @@
     <dataField name="Sum of Tax Inclusive Amount" fld="4" baseField="0" baseItem="0" numFmtId="44"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="16">
+    <format dxfId="1">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="7">
+    <format dxfId="0">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -6586,18 +6541,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{27BBEC8D-3646-4E2F-9810-C6224A507026}" name="Table2" displayName="Table2" ref="A2:I210" totalsRowShown="0" headerRowDxfId="17" dataDxfId="18" headerRowBorderDxfId="28" tableBorderDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{27BBEC8D-3646-4E2F-9810-C6224A507026}" name="Table2" displayName="Table2" ref="A2:I210" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11">
   <autoFilter ref="A2:I210" xr:uid="{27BBEC8D-3646-4E2F-9810-C6224A507026}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{F59A6094-ADC9-4EFB-AD1A-2FBA8D205296}" name="Document Date" dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{00525FAD-E89A-4D75-A1A4-A6C0737A2AC2}" name="Supplier" dataDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{4F107876-079F-417C-9CBD-A10F1B168DC8}" name="Reference" dataDxfId="25"/>
-    <tableColumn id="4" xr3:uid="{7C11DBB2-AF31-4E7C-AB9F-DF951BC1B2AC}" name="Description" dataDxfId="24"/>
-    <tableColumn id="5" xr3:uid="{A1B2D10C-9415-4A90-BA95-42AF659186D8}" name="Tax Inclusive Amount" dataDxfId="23" dataCellStyle="Comma"/>
-    <tableColumn id="6" xr3:uid="{B1099345-B643-42F2-A0FF-E48BD08B1DE4}" name="Column1" dataDxfId="22"/>
-    <tableColumn id="7" xr3:uid="{FF452E83-6987-4939-B0E2-D283452C8E5A}" name="Bank Code" dataDxfId="21"/>
-    <tableColumn id="8" xr3:uid="{90F2FC2E-FD35-46CA-A1D2-05959267BAFC}" name="Account Code" dataDxfId="20"/>
-    <tableColumn id="9" xr3:uid="{AC65D947-BA13-4789-B1D5-D814CB0F9A8A}" name="Payment Date" dataDxfId="19"/>
+    <tableColumn id="1" xr3:uid="{F59A6094-ADC9-4EFB-AD1A-2FBA8D205296}" name="Document Date" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00525FAD-E89A-4D75-A1A4-A6C0737A2AC2}" name="Supplier" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{4F107876-079F-417C-9CBD-A10F1B168DC8}" name="Reference" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{7C11DBB2-AF31-4E7C-AB9F-DF951BC1B2AC}" name="Description" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{A1B2D10C-9415-4A90-BA95-42AF659186D8}" name="Tax Inclusive Amount" dataDxfId="6" dataCellStyle="Comma"/>
+    <tableColumn id="6" xr3:uid="{B1099345-B643-42F2-A0FF-E48BD08B1DE4}" name="Column1" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{FF452E83-6987-4939-B0E2-D283452C8E5A}" name="Bank Code" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{90F2FC2E-FD35-46CA-A1D2-05959267BAFC}" name="Account Code" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{AC65D947-BA13-4789-B1D5-D814CB0F9A8A}" name="Payment Date" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6902,8 +6857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A6DBEEB-DD31-4B53-ADFE-45783CF4A32E}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7157,7 +7112,7 @@
         <v>22</v>
       </c>
       <c r="C21">
-        <f>COUNT(C4:C14)</f>
+        <f>COUNTA(B4:B14)</f>
         <v>11</v>
       </c>
       <c r="D21">
@@ -13452,7 +13407,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29D9E5BD-148C-4695-8CC5-97886F555FAA}">
   <dimension ref="A3:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
